--- a/foo.xlsx
+++ b/foo.xlsx
@@ -7,14 +7,16 @@
   </bookViews>
   <sheets>
     <sheet name="Samples Meta Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="original" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="logAssay" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="original_quantdata" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="original_coldata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="logAssay_quantdata" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="logAssay_coldata" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t xml:space="preserve">Sample.name</t>
   </si>
@@ -257,6 +259,471 @@
   </si>
   <si>
     <t xml:space="preserve">9091600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_term_cleavage_window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_term_cleavage_window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amino_acid_before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First_amino_acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second_amino_acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second_last_amino_acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last_amino_acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amino_acid_after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missed_cleavages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leading_razor_protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start_position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End_position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique_Groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique_Proteins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiment_C_R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiment_C_R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiment_C_R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiment_D_R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiment_D_R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiment_D_R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential_contaminant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein_group_IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mod_peptide_IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evidence_IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS_MS_IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best_MS_MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxidation_M_site_IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS_MS_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qMetacell.metacell_Intensity_C_R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qMetacell.metacell_Intensity_C_R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qMetacell.metacell_Intensity_C_R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qMetacell.metacell_Intensity_D_R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qMetacell.metacell_Intensity_D_R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qMetacell.metacell_Intensity_D_R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTAVIIARAAAAQDEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIVGEIIRQAHRFIQE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P39079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp|P39079|TCPZ_YEAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2;3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0;1;2;3;4;5;6;7;8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0;1;2;3;4;5;6;7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quant. by direct id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing POV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPKETPSKAAADAISD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AISDIEIKDSKSNINK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P09938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp|P09938|RIR2_YEAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9;10;11;12;13;14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8;9;10;11;12;13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEIKDSKSNINKEIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15;16;17;18;19;20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14;15;16;17;18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quant. by recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGINEAKKAAAEEQAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAEEQAKRISGGEAGV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P24276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp|P24276|SSD1_YEAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing MEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSQQDNVKAAAEGVAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATGEMVSKSEIKKRIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P15180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp|P15180|SYKC_YEAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22;23;24;25;26;27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20;21;22;23;24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DITYINNRAAAEYEKG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDAVEQGREMRADYKV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P15705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp|P15705|STI1_YEAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28;29;30;31;32;33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25;26;27;28;29;30;31;32;33;34;35;36;37;38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAIYYANRAAAHSSIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEYDQAVKDAESAISI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q12118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp|Q12118|SGT2_YEAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3;4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34;35;36;37;38;39;40;41;42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39;40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YRAGAIRKAAAPGIQI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FQSPIEDRFTASTFTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q04697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp|Q04697|GSF2_YEAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43;44;45;46;47;48;49;50;51;52;53;54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41;42;43;44;45;46;47;48;49;50;51;52;53;54;55;56;57;58;59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDIFDKARAAAPTVVF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEIDSIAKARGGSIGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P25694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp|P25694|CDC48_YEAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55;56;57;58;59;60;61;62;63;64;65;66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60;61;62;63;64;65;66;67;68;69;70;71;72;73;74;75;76;77;78;79;80;81;82;83;84;85;86;87;88;89;90;91;92;93;94;95;96;97;98;99;100;101;102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIVSEISKAACIVQNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFPIAVTKIIYICSEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P33892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp|P33892|GCN1_YEAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67;68;69;70;71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103;104;105;106;107;108</t>
   </si>
   <si>
     <t xml:space="preserve">24.8153848594996</t>
@@ -1140,6 +1607,2173 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2559.285</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>103</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.00000000000000000000000024684</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>114.15</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS2"/>
+      <c r="AT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>153490000</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1215.6347</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.00018883</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>63.662</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>133190000</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1545.7886</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.000002774</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>93.237</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>136500000</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>972.49886</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>173</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>181</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.086871</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="AQ5"/>
+      <c r="AR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5" t="n">
+        <v>1031000</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2112.0157</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.00074495</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>40.622</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>119240000</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>191</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>176</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2714.2671</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>302</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>326</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.00000000000000000000000000000070537</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>120.63</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>148530000</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>36</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1616.8158</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>143</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>157</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.000090252</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>74.649</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>15772000</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>39</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>176</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>176</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2125.0804</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>286</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>306</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.000000000018284</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>78.674</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>137190000</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>216</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>58</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>19</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1758.9404</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>578</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>594</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.00000000012812</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>111.34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>852710000</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>223</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>224</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>225</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>94</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>43</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>2059.0925</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>830</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>848</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.0014319</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>36.744</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11"/>
+      <c r="AT11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>21378000</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>232</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>234</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>235</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>103</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
@@ -1166,20 +3800,20 @@
         <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="4" t="s">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3">
@@ -1187,22 +3821,22 @@
         <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>88</v>
+        <v>243</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>89</v>
+        <v>244</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
@@ -1210,22 +3844,22 @@
         <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>92</v>
+        <v>247</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>93</v>
+        <v>248</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>97</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5">
@@ -1234,7 +3868,7 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
@@ -1246,22 +3880,22 @@
         <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>254</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>101</v>
+        <v>256</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7">
@@ -1269,22 +3903,22 @@
         <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>260</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>108</v>
+        <v>263</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>110</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
@@ -1292,22 +3926,22 @@
         <v>54</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>111</v>
+        <v>266</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>116</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9">
@@ -1315,22 +3949,22 @@
         <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>272</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>118</v>
+        <v>273</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>119</v>
+        <v>274</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>122</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10">
@@ -1338,22 +3972,22 @@
         <v>68</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>124</v>
+        <v>279</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>126</v>
+        <v>281</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11">
@@ -1361,20 +3995,2187 @@
         <v>75</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>129</v>
+        <v>284</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY1" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="AZ1" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="BA1" t="s">
         <v>133</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2559.285</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>103</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.00000000000000000000000024684</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>114.15</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS2"/>
+      <c r="AT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>153490000</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1215.6347</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.00018883</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>63.662</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>133190000</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1545.7886</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.000002774</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>93.237</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>136500000</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>972.49886</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>173</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>181</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.086871</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="AQ5"/>
+      <c r="AR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5" t="n">
+        <v>1031000</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2112.0157</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.00074495</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>40.622</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>119240000</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>191</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>176</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2714.2671</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>302</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>326</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.00000000000000000000000000000070537</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>120.63</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>148530000</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>36</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1616.8158</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>143</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>157</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.000090252</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>74.649</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>15772000</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>39</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>176</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>176</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2125.0804</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>286</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>306</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.000000000018284</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>78.674</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>137190000</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>216</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>58</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>19</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1758.9404</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>578</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>594</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.00000000012812</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>111.34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>852710000</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>223</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>224</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>225</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>94</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>43</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>2059.0925</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>830</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>848</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.0014319</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>36.744</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11"/>
+      <c r="AT11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>21378000</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>232</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>234</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>235</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>103</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
